--- a/B65_S1__Planification_Thomassin_RochonVincent.xlsx
+++ b/B65_S1__Planification_Thomassin_RochonVincent.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336" tabRatio="494" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336" tabRatio="494" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 - Planification" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="109">
   <si>
     <t>No</t>
   </si>
@@ -464,6 +464,24 @@
   </si>
   <si>
     <t>include machine learning pour les signes</t>
+  </si>
+  <si>
+    <t>pas eu le temps</t>
+  </si>
+  <si>
+    <t>Reléguer pour le sprint 3</t>
+  </si>
+  <si>
+    <t>Réleguer pour le sprint 3 (focus sprint 2 sur le code)</t>
+  </si>
+  <si>
+    <t>pas eu le temps ( Je vais accorder plus de temps au projet)</t>
+  </si>
+  <si>
+    <t>convolution uniforme manque calcule (indécision sur les floats)</t>
+  </si>
+  <si>
+    <t>convolution gaussienne pas fini (manque de compréhension sur le kernel)</t>
   </si>
 </sst>
 </file>
@@ -3971,10 +3989,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4390,7 +4408,7 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -11419,7 +11437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W56"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -12859,8 +12877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z57"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12925,7 +12943,7 @@
       <c r="H5" s="35"/>
       <c r="I5" s="64" t="str">
         <f>IF(M45=0,CONCATENATE("Ce sprint totalise ", W15, " de travail réalisé. ",W16),CONCATENATE("Attention, il reste ",M46," à remplir!"))</f>
-        <v>Attention, il reste 32 champs à remplir!</v>
+        <v>Ce sprint totalise 29 heures et 30 minutes de travail réalisé. 6 tâches sont en retard!</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -13014,15 +13032,15 @@
       </c>
       <c r="S9" s="61">
         <f t="array" ref="S9">SUM(($D$9:$D$43=$R9)*$G$9:$G$43)</f>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="T9" s="62">
         <f>S9*24*60</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V9" s="9">
         <f>SUM(G9:G43)</f>
-        <v>0</v>
+        <v>1.2291666666666676</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.3">
@@ -13070,15 +13088,15 @@
       </c>
       <c r="S10" s="61">
         <f t="array" ref="S10">SUM(($D$9:$D$43=$R10)*$G$9:$G$43)</f>
-        <v>0</v>
+        <v>1.2187500000000011</v>
       </c>
       <c r="T10" s="62">
         <f t="shared" ref="T10:T11" si="4">S10*24*60</f>
-        <v>0</v>
+        <v>1755.0000000000018</v>
       </c>
       <c r="V10" s="10">
         <f>V9</f>
-        <v>0</v>
+        <v>1.2291666666666676</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.3">
@@ -13134,7 +13152,7 @@
       </c>
       <c r="V11" s="63">
         <f>DAY(V9)*24+HOUR(V9)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.3">
@@ -13181,7 +13199,7 @@
       <c r="R12" s="8"/>
       <c r="V12" s="4">
         <f>MINUTE(V9)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.3">
@@ -13230,11 +13248,11 @@
       </c>
       <c r="V13" s="63">
         <f>V11</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="W13" s="4" t="str">
         <f>V13 &amp; " " &amp; U13 &amp; IF(V13 &gt; 1, "s", "")</f>
-        <v>0 heure</v>
+        <v>29 heures</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.3">
@@ -13258,16 +13276,20 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F13),"",'Sprint 1 - Bilan'!F13)</f>
         <v>0.5</v>
       </c>
-      <c r="G14" s="112"/>
-      <c r="H14" s="113"/>
+      <c r="G14" s="112">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H14" s="113">
+        <v>1</v>
+      </c>
       <c r="I14" s="114"/>
       <c r="M14" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13275,7 +13297,7 @@
       </c>
       <c r="P14" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="8"/>
       <c r="U14" s="4" t="s">
@@ -13283,11 +13305,11 @@
       </c>
       <c r="V14" s="4">
         <f>V12</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W14" s="4" t="str">
         <f>V14 &amp; " " &amp; U14 &amp; IF(V14 &gt; 1, "s", "")</f>
-        <v>0 minute</v>
+        <v>30 minutes</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.3">
@@ -13333,11 +13355,11 @@
       <c r="R15" s="8"/>
       <c r="W15" s="4" t="str">
         <f>IF(V13&gt;0,IF(V14&gt;0,W13&amp;" et "&amp;W14,W13),W14)</f>
-        <v>0 minute</v>
+        <v>29 heures et 30 minutes</v>
       </c>
       <c r="Y15" s="4" t="str">
         <f>V13&amp;"h"&amp;TEXT(V14,"00")</f>
-        <v>0h00</v>
+        <v>29h30</v>
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.3">
@@ -13383,11 +13405,11 @@
       <c r="R16" s="8"/>
       <c r="V16" s="4">
         <f>P44</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="W16" s="4" t="str">
         <f>IF(V16=0,"",IF(V16=1,"Une tâche est en retard!",CONCATENATE(V16," tâches sont en retard!")))</f>
-        <v>16 tâches sont en retard!</v>
+        <v>6 tâches sont en retard!</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
@@ -13411,16 +13433,20 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F16),"",'Sprint 1 - Bilan'!F16)</f>
         <v/>
       </c>
-      <c r="G17" s="115"/>
-      <c r="H17" s="116"/>
+      <c r="G17" s="115">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="H17" s="116">
+        <v>1</v>
+      </c>
       <c r="I17" s="117"/>
       <c r="M17" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13428,7 +13454,7 @@
       </c>
       <c r="P17" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="8"/>
     </row>
@@ -13453,16 +13479,20 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F17),"",'Sprint 1 - Bilan'!F17)</f>
         <v/>
       </c>
-      <c r="G18" s="112"/>
-      <c r="H18" s="113"/>
+      <c r="G18" s="112">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="H18" s="113">
+        <v>1</v>
+      </c>
       <c r="I18" s="114"/>
       <c r="M18" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13470,7 +13500,7 @@
       </c>
       <c r="P18" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="8"/>
     </row>
@@ -13495,17 +13525,21 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F18),"",'Sprint 1 - Bilan'!F18)</f>
         <v/>
       </c>
-      <c r="G19" s="118"/>
-      <c r="H19" s="116"/>
+      <c r="G19" s="118">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H19" s="116">
+        <v>1</v>
+      </c>
       <c r="I19" s="117"/>
       <c r="K19" s="9"/>
       <c r="M19" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13513,7 +13547,7 @@
       </c>
       <c r="P19" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="8"/>
     </row>
@@ -13538,16 +13572,22 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F19),"",'Sprint 1 - Bilan'!F19)</f>
         <v/>
       </c>
-      <c r="G20" s="112"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="114"/>
+      <c r="G20" s="112">
+        <v>0</v>
+      </c>
+      <c r="H20" s="113">
+        <v>0</v>
+      </c>
+      <c r="I20" s="114" t="s">
+        <v>104</v>
+      </c>
       <c r="M20" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13580,16 +13620,20 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F20),"",'Sprint 1 - Bilan'!F20)</f>
         <v/>
       </c>
-      <c r="G21" s="118"/>
-      <c r="H21" s="116"/>
+      <c r="G21" s="118">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H21" s="116">
+        <v>1</v>
+      </c>
       <c r="I21" s="117"/>
       <c r="M21" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13597,7 +13641,7 @@
       </c>
       <c r="P21" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="8"/>
     </row>
@@ -13622,16 +13666,20 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F21),"",'Sprint 1 - Bilan'!F21)</f>
         <v/>
       </c>
-      <c r="G22" s="112"/>
-      <c r="H22" s="113"/>
+      <c r="G22" s="112">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="H22" s="113">
+        <v>1</v>
+      </c>
       <c r="I22" s="114"/>
       <c r="M22" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13639,7 +13687,7 @@
       </c>
       <c r="P22" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="8"/>
     </row>
@@ -13664,16 +13712,22 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F22),"",'Sprint 1 - Bilan'!F22)</f>
         <v/>
       </c>
-      <c r="G23" s="115"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="117"/>
+      <c r="G23" s="115">
+        <v>0</v>
+      </c>
+      <c r="H23" s="116">
+        <v>0</v>
+      </c>
+      <c r="I23" s="117" t="s">
+        <v>105</v>
+      </c>
       <c r="M23" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13706,16 +13760,20 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F23),"",'Sprint 1 - Bilan'!F23)</f>
         <v/>
       </c>
-      <c r="G24" s="112"/>
-      <c r="H24" s="113"/>
+      <c r="G24" s="112">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="H24" s="113">
+        <v>1</v>
+      </c>
       <c r="I24" s="114"/>
       <c r="M24" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13723,7 +13781,7 @@
       </c>
       <c r="P24" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="8"/>
     </row>
@@ -13748,16 +13806,20 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F24),"",'Sprint 1 - Bilan'!F24)</f>
         <v/>
       </c>
-      <c r="G25" s="118"/>
-      <c r="H25" s="116"/>
+      <c r="G25" s="118">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H25" s="116">
+        <v>1</v>
+      </c>
       <c r="I25" s="117"/>
       <c r="M25" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13765,7 +13827,7 @@
       </c>
       <c r="P25" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="8"/>
     </row>
@@ -13790,16 +13852,20 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F25),"",'Sprint 1 - Bilan'!F25)</f>
         <v/>
       </c>
-      <c r="G26" s="112"/>
-      <c r="H26" s="113"/>
+      <c r="G26" s="112">
+        <v>0.41666666666666802</v>
+      </c>
+      <c r="H26" s="113">
+        <v>1</v>
+      </c>
       <c r="I26" s="114"/>
       <c r="M26" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13807,7 +13873,7 @@
       </c>
       <c r="P26" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="8"/>
     </row>
@@ -13832,16 +13898,20 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F26),"",'Sprint 1 - Bilan'!F26)</f>
         <v/>
       </c>
-      <c r="G27" s="118"/>
-      <c r="H27" s="116"/>
+      <c r="G27" s="118">
+        <v>0.125</v>
+      </c>
+      <c r="H27" s="116">
+        <v>1</v>
+      </c>
       <c r="I27" s="117"/>
       <c r="M27" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13849,7 +13919,7 @@
       </c>
       <c r="P27" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="8"/>
     </row>
@@ -13874,16 +13944,22 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F27),"",'Sprint 1 - Bilan'!F27)</f>
         <v/>
       </c>
-      <c r="G28" s="112"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="114"/>
+      <c r="G28" s="112">
+        <v>0</v>
+      </c>
+      <c r="H28" s="113">
+        <v>0</v>
+      </c>
+      <c r="I28" s="114" t="s">
+        <v>106</v>
+      </c>
       <c r="M28" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13916,16 +13992,22 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F28),"",'Sprint 1 - Bilan'!F28)</f>
         <v/>
       </c>
-      <c r="G29" s="115"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="117"/>
+      <c r="G29" s="115">
+        <v>0</v>
+      </c>
+      <c r="H29" s="116">
+        <v>0</v>
+      </c>
+      <c r="I29" s="117" t="s">
+        <v>103</v>
+      </c>
       <c r="M29" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="b">
         <f t="shared" si="2"/>
@@ -14042,16 +14124,22 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F31),"",'Sprint 1 - Bilan'!F31)</f>
         <v/>
       </c>
-      <c r="G32" s="112"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="114"/>
+      <c r="G32" s="112">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="H32" s="113">
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="114" t="s">
+        <v>107</v>
+      </c>
       <c r="M32" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="b">
         <f t="shared" si="2"/>
@@ -14084,16 +14172,22 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F32),"",'Sprint 1 - Bilan'!F32)</f>
         <v/>
       </c>
-      <c r="G33" s="118"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="117"/>
+      <c r="G33" s="118">
+        <v>0.125</v>
+      </c>
+      <c r="H33" s="116">
+        <v>0.3</v>
+      </c>
+      <c r="I33" s="117" t="s">
+        <v>108</v>
+      </c>
       <c r="M33" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="b">
         <f t="shared" si="2"/>
@@ -14528,11 +14622,11 @@
     <row r="44" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M44" s="3">
         <f>COUNTIF(M9:M43,TRUE)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ref="N44:O44" si="5">COUNTIF(N9:N43,TRUE)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="5"/>
@@ -14540,21 +14634,21 @@
       </c>
       <c r="P44" s="3">
         <f>COUNTIF(P9:P43,FALSE)</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="R44" s="8"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M45" s="3">
         <f>SUM(M44:O44)</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M46" s="3" t="str">
         <f>IF(M45=0, "aucun champ", IF(M45=1, "1 champ", M45 &amp; " champs"))</f>
-        <v>32 champs</v>
+        <v>aucun champ</v>
       </c>
       <c r="R46" s="8"/>
     </row>
@@ -14798,7 +14892,7 @@
       <c r="H5" s="35"/>
       <c r="I5" s="64" t="str">
         <f>IF(M45=0,CONCATENATE("Ce sprint totalise ", W15, " de travail réalisé. ",W16),CONCATENATE("Attention, il reste ",M46," à remplir!"))</f>
-        <v>Attention, il reste 44 champs à remplir!</v>
+        <v>Attention, il reste 24 champs à remplir!</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -15125,22 +15219,22 @@
       </c>
       <c r="E14" s="73">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E14)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G14)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E14)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G14))</f>
-        <v>2.0833333333333301E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F14" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H14)&lt;&gt;0,'Sprint 2 - Bilan'!$H14,IF(LEN('Sprint 2 - Bilan'!$F14)=0,"",'Sprint 2 - Bilan'!$F14))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14" s="112"/>
       <c r="H14" s="113"/>
       <c r="I14" s="114"/>
       <c r="M14" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="b">
         <f t="shared" si="2"/>
@@ -15148,7 +15242,7 @@
       </c>
       <c r="P14" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="8"/>
       <c r="U14" s="4" t="s">
@@ -15256,11 +15350,11 @@
       <c r="R16" s="8"/>
       <c r="V16" s="4">
         <f>P44</f>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="W16" s="4" t="str">
         <f>IF(V16=0,"",IF(V16=1,"Une tâche n'a pas été terminée!",CONCATENATE(V16," tâches n'ont pas été terminé!")))</f>
-        <v>22 tâches n'ont pas été terminé!</v>
+        <v>12 tâches n'ont pas été terminé!</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
@@ -15276,24 +15370,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H16)&lt;&gt;0,'Sprint 1 - Planification'!H16,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E17" s="74" t="str">
+      <c r="E17" s="74">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E17)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G17)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E17)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G17))</f>
-        <v/>
-      </c>
-      <c r="F17" s="78" t="str">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="F17" s="78">
         <f>IF(LEN('Sprint 2 - Bilan'!$H17)&lt;&gt;0,'Sprint 2 - Bilan'!$H17,IF(LEN('Sprint 2 - Bilan'!$F17)=0,"",'Sprint 2 - Bilan'!$F17))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G17" s="115"/>
       <c r="H17" s="116"/>
       <c r="I17" s="117"/>
       <c r="M17" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="b">
         <f t="shared" si="2"/>
@@ -15301,7 +15395,7 @@
       </c>
       <c r="P17" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="8"/>
     </row>
@@ -15318,24 +15412,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H17)&lt;&gt;0,'Sprint 1 - Planification'!H17,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E18" s="73" t="str">
+      <c r="E18" s="73">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E18)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G18)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E18)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G18))</f>
-        <v/>
-      </c>
-      <c r="F18" s="77" t="str">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="F18" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H18)&lt;&gt;0,'Sprint 2 - Bilan'!$H18,IF(LEN('Sprint 2 - Bilan'!$F18)=0,"",'Sprint 2 - Bilan'!$F18))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G18" s="112"/>
       <c r="H18" s="113"/>
       <c r="I18" s="114"/>
       <c r="M18" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="b">
         <f t="shared" si="2"/>
@@ -15343,7 +15437,7 @@
       </c>
       <c r="P18" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="8"/>
     </row>
@@ -15360,24 +15454,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H18)&lt;&gt;0,'Sprint 1 - Planification'!H18,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E19" s="75" t="str">
+      <c r="E19" s="75">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E19)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G19)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E19)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G19))</f>
-        <v/>
-      </c>
-      <c r="F19" s="79" t="str">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F19" s="79">
         <f>IF(LEN('Sprint 2 - Bilan'!$H19)&lt;&gt;0,'Sprint 2 - Bilan'!$H19,IF(LEN('Sprint 2 - Bilan'!$F19)=0,"",'Sprint 2 - Bilan'!$F19))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G19" s="118"/>
       <c r="H19" s="116"/>
       <c r="I19" s="117"/>
       <c r="M19" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="3" t="b">
         <f t="shared" si="2"/>
@@ -15385,7 +15479,7 @@
       </c>
       <c r="P19" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="8"/>
     </row>
@@ -15406,9 +15500,9 @@
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E20)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G20)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E20)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G20))</f>
         <v/>
       </c>
-      <c r="F20" s="77" t="str">
+      <c r="F20" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H20)&lt;&gt;0,'Sprint 2 - Bilan'!$H20,IF(LEN('Sprint 2 - Bilan'!$F20)=0,"",'Sprint 2 - Bilan'!$F20))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G20" s="112"/>
       <c r="H20" s="113"/>
@@ -15444,24 +15538,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H20)&lt;&gt;0,'Sprint 1 - Planification'!H20,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E21" s="75" t="str">
+      <c r="E21" s="75">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E21)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G21)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E21)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G21))</f>
-        <v/>
-      </c>
-      <c r="F21" s="79" t="str">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="F21" s="79">
         <f>IF(LEN('Sprint 2 - Bilan'!$H21)&lt;&gt;0,'Sprint 2 - Bilan'!$H21,IF(LEN('Sprint 2 - Bilan'!$F21)=0,"",'Sprint 2 - Bilan'!$F21))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G21" s="118"/>
       <c r="H21" s="116"/>
       <c r="I21" s="117"/>
       <c r="M21" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="b">
         <f t="shared" si="2"/>
@@ -15469,7 +15563,7 @@
       </c>
       <c r="P21" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="8"/>
     </row>
@@ -15486,24 +15580,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H21)&lt;&gt;0,'Sprint 1 - Planification'!H21,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E22" s="73" t="str">
+      <c r="E22" s="73">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E22)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G22)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E22)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G22))</f>
-        <v/>
-      </c>
-      <c r="F22" s="77" t="str">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="F22" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H22)&lt;&gt;0,'Sprint 2 - Bilan'!$H22,IF(LEN('Sprint 2 - Bilan'!$F22)=0,"",'Sprint 2 - Bilan'!$F22))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G22" s="112"/>
       <c r="H22" s="113"/>
       <c r="I22" s="114"/>
       <c r="M22" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="b">
         <f t="shared" si="2"/>
@@ -15511,7 +15605,7 @@
       </c>
       <c r="P22" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="8"/>
     </row>
@@ -15532,9 +15626,9 @@
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E23)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G23)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E23)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G23))</f>
         <v/>
       </c>
-      <c r="F23" s="78" t="str">
+      <c r="F23" s="78">
         <f>IF(LEN('Sprint 2 - Bilan'!$H23)&lt;&gt;0,'Sprint 2 - Bilan'!$H23,IF(LEN('Sprint 2 - Bilan'!$F23)=0,"",'Sprint 2 - Bilan'!$F23))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G23" s="115"/>
       <c r="H23" s="116"/>
@@ -15570,24 +15664,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H23)&lt;&gt;0,'Sprint 1 - Planification'!H23,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E24" s="73" t="str">
+      <c r="E24" s="73">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E24)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G24)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E24)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G24))</f>
-        <v/>
-      </c>
-      <c r="F24" s="77" t="str">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="F24" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H24)&lt;&gt;0,'Sprint 2 - Bilan'!$H24,IF(LEN('Sprint 2 - Bilan'!$F24)=0,"",'Sprint 2 - Bilan'!$F24))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G24" s="112"/>
       <c r="H24" s="113"/>
       <c r="I24" s="114"/>
       <c r="M24" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="b">
         <f t="shared" si="2"/>
@@ -15595,7 +15689,7 @@
       </c>
       <c r="P24" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="8"/>
     </row>
@@ -15612,24 +15706,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H24)&lt;&gt;0,'Sprint 1 - Planification'!H24,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E25" s="75" t="str">
+      <c r="E25" s="75">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E25)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G25)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E25)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G25))</f>
-        <v/>
-      </c>
-      <c r="F25" s="79" t="str">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="F25" s="79">
         <f>IF(LEN('Sprint 2 - Bilan'!$H25)&lt;&gt;0,'Sprint 2 - Bilan'!$H25,IF(LEN('Sprint 2 - Bilan'!$F25)=0,"",'Sprint 2 - Bilan'!$F25))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G25" s="118"/>
       <c r="H25" s="116"/>
       <c r="I25" s="117"/>
       <c r="M25" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="3" t="b">
         <f t="shared" si="2"/>
@@ -15637,7 +15731,7 @@
       </c>
       <c r="P25" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="8"/>
     </row>
@@ -15654,24 +15748,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H25)&lt;&gt;0,'Sprint 1 - Planification'!H25,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E26" s="73" t="str">
+      <c r="E26" s="73">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E26)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G26)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E26)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G26))</f>
-        <v/>
-      </c>
-      <c r="F26" s="77" t="str">
+        <v>0.41666666666666802</v>
+      </c>
+      <c r="F26" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H26)&lt;&gt;0,'Sprint 2 - Bilan'!$H26,IF(LEN('Sprint 2 - Bilan'!$F26)=0,"",'Sprint 2 - Bilan'!$F26))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G26" s="112"/>
       <c r="H26" s="113"/>
       <c r="I26" s="114"/>
       <c r="M26" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="b">
         <f t="shared" si="2"/>
@@ -15679,7 +15773,7 @@
       </c>
       <c r="P26" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="8"/>
     </row>
@@ -15696,24 +15790,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H26)&lt;&gt;0,'Sprint 1 - Planification'!H26,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E27" s="75" t="str">
+      <c r="E27" s="75">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E27)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G27)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E27)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G27))</f>
-        <v/>
-      </c>
-      <c r="F27" s="79" t="str">
+        <v>0.125</v>
+      </c>
+      <c r="F27" s="79">
         <f>IF(LEN('Sprint 2 - Bilan'!$H27)&lt;&gt;0,'Sprint 2 - Bilan'!$H27,IF(LEN('Sprint 2 - Bilan'!$F27)=0,"",'Sprint 2 - Bilan'!$F27))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G27" s="118"/>
       <c r="H27" s="116"/>
       <c r="I27" s="117"/>
       <c r="M27" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="b">
         <f t="shared" si="2"/>
@@ -15721,7 +15815,7 @@
       </c>
       <c r="P27" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="8"/>
     </row>
@@ -15742,9 +15836,9 @@
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E28)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G28)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E28)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G28))</f>
         <v/>
       </c>
-      <c r="F28" s="77" t="str">
+      <c r="F28" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H28)&lt;&gt;0,'Sprint 2 - Bilan'!$H28,IF(LEN('Sprint 2 - Bilan'!$F28)=0,"",'Sprint 2 - Bilan'!$F28))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G28" s="112"/>
       <c r="H28" s="113"/>
@@ -15784,9 +15878,9 @@
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E29)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G29)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E29)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G29))</f>
         <v/>
       </c>
-      <c r="F29" s="78" t="str">
+      <c r="F29" s="78">
         <f>IF(LEN('Sprint 2 - Bilan'!$H29)&lt;&gt;0,'Sprint 2 - Bilan'!$H29,IF(LEN('Sprint 2 - Bilan'!$F29)=0,"",'Sprint 2 - Bilan'!$F29))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G29" s="115"/>
       <c r="H29" s="116"/>
@@ -15906,13 +16000,13 @@
         <f>IF(LEN('Sprint 1 - Planification'!H31)&lt;&gt;0,'Sprint 1 - Planification'!H31,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E32" s="73" t="str">
+      <c r="E32" s="73">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E32)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G32)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E32)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G32))</f>
-        <v/>
-      </c>
-      <c r="F32" s="77" t="str">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="F32" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H32)&lt;&gt;0,'Sprint 2 - Bilan'!$H32,IF(LEN('Sprint 2 - Bilan'!$F32)=0,"",'Sprint 2 - Bilan'!$F32))</f>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="G32" s="112"/>
       <c r="H32" s="113"/>
@@ -15948,13 +16042,13 @@
         <f>IF(LEN('Sprint 1 - Planification'!H32)&lt;&gt;0,'Sprint 1 - Planification'!H32,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E33" s="75" t="str">
+      <c r="E33" s="75">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E33)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G33)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E33)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G33))</f>
-        <v/>
-      </c>
-      <c r="F33" s="79" t="str">
+        <v>0.125</v>
+      </c>
+      <c r="F33" s="79">
         <f>IF(LEN('Sprint 2 - Bilan'!$H33)&lt;&gt;0,'Sprint 2 - Bilan'!$H33,IF(LEN('Sprint 2 - Bilan'!$F33)=0,"",'Sprint 2 - Bilan'!$F33))</f>
-        <v/>
+        <v>0.3</v>
       </c>
       <c r="G33" s="118"/>
       <c r="H33" s="116"/>
@@ -16400,11 +16494,11 @@
     <row r="44" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M44" s="3">
         <f>COUNTIF(M9:M43,TRUE)</f>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ref="N44:O44" si="5">COUNTIF(N9:N43,TRUE)</f>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="5"/>
@@ -16412,21 +16506,21 @@
       </c>
       <c r="P44" s="3">
         <f>COUNTIF(P9:P43,FALSE)</f>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="R44" s="8"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M45" s="3">
         <f>SUM(M44:O44)</f>
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M46" s="3" t="str">
         <f>IF(M45=0, "aucun champ", IF(M45=1, "1 champ", M45 &amp; " champs"))</f>
-        <v>44 champs</v>
+        <v>24 champs</v>
       </c>
       <c r="R46" s="8"/>
     </row>
@@ -16756,7 +16850,7 @@
       </c>
       <c r="D10" s="96" t="str">
         <f t="shared" si="0"/>
-        <v>0h00</v>
+        <v>29h30</v>
       </c>
       <c r="E10" s="97" t="str">
         <f t="shared" si="0"/>
@@ -16764,7 +16858,7 @@
       </c>
       <c r="F10" s="101" t="str">
         <f t="shared" si="0"/>
-        <v>26h00</v>
+        <v>55h30</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -16774,7 +16868,7 @@
       </c>
       <c r="M10" s="1">
         <f>'Sprint 2 - Bilan'!V9</f>
-        <v>0</v>
+        <v>1.2291666666666676</v>
       </c>
       <c r="N10" s="1">
         <f>'Sprint 3 - Bilan'!V9</f>
@@ -16782,7 +16876,7 @@
       </c>
       <c r="O10" s="1">
         <f>SUM(L10:N10)</f>
-        <v>1.0833333333333344</v>
+        <v>2.3125000000000018</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>66</v>
@@ -16793,7 +16887,7 @@
       </c>
       <c r="R10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="1"/>
@@ -16824,15 +16918,15 @@
       </c>
       <c r="D11" s="105">
         <f>M11</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E11" s="106">
         <f>N11</f>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F11" s="107">
         <f>O11</f>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -16842,15 +16936,15 @@
       </c>
       <c r="M11" s="1">
         <f>'Sprint 2 - Bilan'!V16</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N11" s="1">
         <f>'Sprint 3 - Bilan'!V16</f>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="O11" s="1">
         <f>N11</f>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
